--- a/school_excel_data/昇級学生用のテストデータ/other 1学期中間/other_1学期中間_英語.xlsx
+++ b/school_excel_data/昇級学生用のテストデータ/other 1学期中間/other_1学期中間_英語.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\other 1学期中間\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\昇級学生用のテストデータ\other 1学期中間\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2937,7 +2937,7 @@
   <dimension ref="A1:J1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J336"/>
+      <selection activeCell="E2" sqref="E2:E336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2992,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3024,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3056,7 +3056,7 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3088,7 +3088,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3120,7 +3120,7 @@
         <v>49</v>
       </c>
       <c r="E6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3152,7 +3152,7 @@
         <v>59</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -3184,7 +3184,7 @@
         <v>69</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>78</v>
       </c>
       <c r="E9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -3248,7 +3248,7 @@
         <v>88</v>
       </c>
       <c r="E10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>97</v>
       </c>
       <c r="E11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -3312,7 +3312,7 @@
         <v>107</v>
       </c>
       <c r="E12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -3344,7 +3344,7 @@
         <v>97</v>
       </c>
       <c r="E13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3376,7 +3376,7 @@
         <v>121</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>130</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3440,7 +3440,7 @@
         <v>138</v>
       </c>
       <c r="E16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>91</v>
       </c>
       <c r="E17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3504,7 +3504,7 @@
         <v>155</v>
       </c>
       <c r="E18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -3536,7 +3536,7 @@
         <v>163</v>
       </c>
       <c r="E19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>173</v>
       </c>
       <c r="E20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -3600,7 +3600,7 @@
         <v>183</v>
       </c>
       <c r="E21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -3632,7 +3632,7 @@
         <v>130</v>
       </c>
       <c r="E22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -3664,7 +3664,7 @@
         <v>198</v>
       </c>
       <c r="E23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -3696,7 +3696,7 @@
         <v>206</v>
       </c>
       <c r="E24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>214</v>
       </c>
       <c r="E25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3760,7 +3760,7 @@
         <v>121</v>
       </c>
       <c r="E26">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>229</v>
       </c>
       <c r="E27">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -3824,7 +3824,7 @@
         <v>91</v>
       </c>
       <c r="E28">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -3856,7 +3856,7 @@
         <v>247</v>
       </c>
       <c r="E29">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>248</v>
       </c>
       <c r="E30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -3920,7 +3920,7 @@
         <v>157</v>
       </c>
       <c r="E31">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -3952,7 +3952,7 @@
         <v>115</v>
       </c>
       <c r="E32">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -3984,7 +3984,7 @@
         <v>274</v>
       </c>
       <c r="E33">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -4016,7 +4016,7 @@
         <v>279</v>
       </c>
       <c r="E34">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -4048,7 +4048,7 @@
         <v>111</v>
       </c>
       <c r="E35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>295</v>
       </c>
       <c r="E36">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -4112,7 +4112,7 @@
         <v>167</v>
       </c>
       <c r="E37">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -4144,7 +4144,7 @@
         <v>309</v>
       </c>
       <c r="E38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -4176,7 +4176,7 @@
         <v>317</v>
       </c>
       <c r="E39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -4208,7 +4208,7 @@
         <v>325</v>
       </c>
       <c r="E40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>332</v>
       </c>
       <c r="E41">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -4272,7 +4272,7 @@
         <v>339</v>
       </c>
       <c r="E42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -4304,7 +4304,7 @@
         <v>261</v>
       </c>
       <c r="E43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -4336,7 +4336,7 @@
         <v>350</v>
       </c>
       <c r="E44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -4368,7 +4368,7 @@
         <v>359</v>
       </c>
       <c r="E45">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -4400,7 +4400,7 @@
         <v>365</v>
       </c>
       <c r="E46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -4432,7 +4432,7 @@
         <v>372</v>
       </c>
       <c r="E47">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -4464,7 +4464,7 @@
         <v>214</v>
       </c>
       <c r="E48">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -4496,7 +4496,7 @@
         <v>268</v>
       </c>
       <c r="E49">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -4528,7 +4528,7 @@
         <v>393</v>
       </c>
       <c r="E50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -4560,7 +4560,7 @@
         <v>402</v>
       </c>
       <c r="E51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -4592,7 +4592,7 @@
         <v>279</v>
       </c>
       <c r="E52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -4624,7 +4624,7 @@
         <v>247</v>
       </c>
       <c r="E53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -4656,7 +4656,7 @@
         <v>144</v>
       </c>
       <c r="E54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -4688,7 +4688,7 @@
         <v>425</v>
       </c>
       <c r="E55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -4720,7 +4720,7 @@
         <v>433</v>
       </c>
       <c r="E56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>439</v>
       </c>
       <c r="E57">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -4784,7 +4784,7 @@
         <v>53</v>
       </c>
       <c r="E58">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4816,7 +4816,7 @@
         <v>383</v>
       </c>
       <c r="E59">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -4848,7 +4848,7 @@
         <v>457</v>
       </c>
       <c r="E60">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -4880,7 +4880,7 @@
         <v>350</v>
       </c>
       <c r="E61">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -4912,7 +4912,7 @@
         <v>128</v>
       </c>
       <c r="E62">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -4944,7 +4944,7 @@
         <v>365</v>
       </c>
       <c r="E63">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -4976,7 +4976,7 @@
         <v>44</v>
       </c>
       <c r="E64">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -5008,7 +5008,7 @@
         <v>51</v>
       </c>
       <c r="E65">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -5040,7 +5040,7 @@
         <v>140</v>
       </c>
       <c r="E66">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -5072,7 +5072,7 @@
         <v>69</v>
       </c>
       <c r="E67">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -5104,7 +5104,7 @@
         <v>24</v>
       </c>
       <c r="E68">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -5136,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="E69">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -5168,7 +5168,7 @@
         <v>22</v>
       </c>
       <c r="E70">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -5200,7 +5200,7 @@
         <v>32</v>
       </c>
       <c r="E71">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -5232,7 +5232,7 @@
         <v>42</v>
       </c>
       <c r="E72">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -5264,7 +5264,7 @@
         <v>51</v>
       </c>
       <c r="E73">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -5296,7 +5296,7 @@
         <v>61</v>
       </c>
       <c r="E74">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>70</v>
       </c>
       <c r="E75">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -5360,7 +5360,7 @@
         <v>80</v>
       </c>
       <c r="E76">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -5392,7 +5392,7 @@
         <v>89</v>
       </c>
       <c r="E77">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -5424,7 +5424,7 @@
         <v>99</v>
       </c>
       <c r="E78">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -5456,7 +5456,7 @@
         <v>61</v>
       </c>
       <c r="E79">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -5488,7 +5488,7 @@
         <v>115</v>
       </c>
       <c r="E80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -5520,7 +5520,7 @@
         <v>121</v>
       </c>
       <c r="E81">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -5552,7 +5552,7 @@
         <v>53</v>
       </c>
       <c r="E82">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -5584,7 +5584,7 @@
         <v>140</v>
       </c>
       <c r="E83">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -5616,7 +5616,7 @@
         <v>55</v>
       </c>
       <c r="E84">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -5648,7 +5648,7 @@
         <v>157</v>
       </c>
       <c r="E85">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -5680,7 +5680,7 @@
         <v>165</v>
       </c>
       <c r="E86">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -5712,7 +5712,7 @@
         <v>175</v>
       </c>
       <c r="E87">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         <v>115</v>
       </c>
       <c r="E88">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -5776,7 +5776,7 @@
         <v>57</v>
       </c>
       <c r="E89">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>200</v>
       </c>
       <c r="E90">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -5840,7 +5840,7 @@
         <v>91</v>
       </c>
       <c r="E91">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -5872,7 +5872,7 @@
         <v>158</v>
       </c>
       <c r="E92">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5904,7 +5904,7 @@
         <v>222</v>
       </c>
       <c r="E93">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -5936,7 +5936,7 @@
         <v>231</v>
       </c>
       <c r="E94">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -5968,7 +5968,7 @@
         <v>239</v>
       </c>
       <c r="E95">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -6000,7 +6000,7 @@
         <v>248</v>
       </c>
       <c r="E96">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -6032,7 +6032,7 @@
         <v>14</v>
       </c>
       <c r="E97">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>175</v>
       </c>
       <c r="E98">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -6096,7 +6096,7 @@
         <v>268</v>
       </c>
       <c r="E99">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -6128,7 +6128,7 @@
         <v>158</v>
       </c>
       <c r="E100">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -6160,7 +6160,7 @@
         <v>281</v>
       </c>
       <c r="E101">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -6192,7 +6192,7 @@
         <v>290</v>
       </c>
       <c r="E102">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -6224,7 +6224,7 @@
         <v>297</v>
       </c>
       <c r="E103">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -6256,7 +6256,7 @@
         <v>304</v>
       </c>
       <c r="E104">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -6288,7 +6288,7 @@
         <v>310</v>
       </c>
       <c r="E105">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -6320,7 +6320,7 @@
         <v>319</v>
       </c>
       <c r="E106">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -6352,7 +6352,7 @@
         <v>231</v>
       </c>
       <c r="E107">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -6384,7 +6384,7 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -6416,7 +6416,7 @@
         <v>341</v>
       </c>
       <c r="E109">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -6448,7 +6448,7 @@
         <v>347</v>
       </c>
       <c r="E110">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -6480,7 +6480,7 @@
         <v>352</v>
       </c>
       <c r="E111">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -6512,7 +6512,7 @@
         <v>361</v>
       </c>
       <c r="E112">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -6544,7 +6544,7 @@
         <v>367</v>
       </c>
       <c r="E113">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -6576,7 +6576,7 @@
         <v>350</v>
       </c>
       <c r="E114">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -6608,7 +6608,7 @@
         <v>231</v>
       </c>
       <c r="E115">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -6640,7 +6640,7 @@
         <v>387</v>
       </c>
       <c r="E116">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -6672,7 +6672,7 @@
         <v>319</v>
       </c>
       <c r="E117">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -6704,7 +6704,7 @@
         <v>347</v>
       </c>
       <c r="E118">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -6736,7 +6736,7 @@
         <v>408</v>
       </c>
       <c r="E119">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -6768,7 +6768,7 @@
         <v>400</v>
       </c>
       <c r="E120">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -6800,7 +6800,7 @@
         <v>420</v>
       </c>
       <c r="E121">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -6832,7 +6832,7 @@
         <v>427</v>
       </c>
       <c r="E122">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -6864,7 +6864,7 @@
         <v>179</v>
       </c>
       <c r="E123">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -6896,7 +6896,7 @@
         <v>198</v>
       </c>
       <c r="E124">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -6928,7 +6928,7 @@
         <v>200</v>
       </c>
       <c r="E125">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -6960,7 +6960,7 @@
         <v>274</v>
       </c>
       <c r="E126">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -6992,7 +6992,7 @@
         <v>458</v>
       </c>
       <c r="E127">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -7024,7 +7024,7 @@
         <v>40</v>
       </c>
       <c r="E128">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -7056,7 +7056,7 @@
         <v>469</v>
       </c>
       <c r="E129">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -7088,7 +7088,7 @@
         <v>32</v>
       </c>
       <c r="E130">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -7120,7 +7120,7 @@
         <v>339</v>
       </c>
       <c r="E131">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -7152,7 +7152,7 @@
         <v>51</v>
       </c>
       <c r="E132">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>492</v>
       </c>
       <c r="E133">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -7216,7 +7216,7 @@
         <v>250</v>
       </c>
       <c r="E134">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F134">
         <v>2</v>
@@ -7248,7 +7248,7 @@
         <v>502</v>
       </c>
       <c r="E135">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -7280,7 +7280,7 @@
         <v>14</v>
       </c>
       <c r="E136">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -7312,7 +7312,7 @@
         <v>24</v>
       </c>
       <c r="E137">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -7344,7 +7344,7 @@
         <v>34</v>
       </c>
       <c r="E138">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -7376,7 +7376,7 @@
         <v>44</v>
       </c>
       <c r="E139">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -7408,7 +7408,7 @@
         <v>53</v>
       </c>
       <c r="E140">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -7440,7 +7440,7 @@
         <v>63</v>
       </c>
       <c r="E141">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -7472,7 +7472,7 @@
         <v>72</v>
       </c>
       <c r="E142">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -7504,7 +7504,7 @@
         <v>82</v>
       </c>
       <c r="E143">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -7536,7 +7536,7 @@
         <v>91</v>
       </c>
       <c r="E144">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -7568,7 +7568,7 @@
         <v>101</v>
       </c>
       <c r="E145">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -7600,7 +7600,7 @@
         <v>93</v>
       </c>
       <c r="E146">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -7632,7 +7632,7 @@
         <v>93</v>
       </c>
       <c r="E147">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -7664,7 +7664,7 @@
         <v>124</v>
       </c>
       <c r="E148">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -7696,7 +7696,7 @@
         <v>133</v>
       </c>
       <c r="E149">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -7728,7 +7728,7 @@
         <v>142</v>
       </c>
       <c r="E150">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -7760,7 +7760,7 @@
         <v>88</v>
       </c>
       <c r="E151">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -7792,7 +7792,7 @@
         <v>158</v>
       </c>
       <c r="E152">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -7824,7 +7824,7 @@
         <v>167</v>
       </c>
       <c r="E153">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -7856,7 +7856,7 @@
         <v>177</v>
       </c>
       <c r="E154">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -7888,7 +7888,7 @@
         <v>138</v>
       </c>
       <c r="E155">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -7920,7 +7920,7 @@
         <v>193</v>
       </c>
       <c r="E156">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -7952,7 +7952,7 @@
         <v>201</v>
       </c>
       <c r="E157">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -7984,7 +7984,7 @@
         <v>209</v>
       </c>
       <c r="E158">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -8016,7 +8016,7 @@
         <v>217</v>
       </c>
       <c r="E159">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -8048,7 +8048,7 @@
         <v>224</v>
       </c>
       <c r="E160">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -8080,7 +8080,7 @@
         <v>181</v>
       </c>
       <c r="E161">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -8112,7 +8112,7 @@
         <v>241</v>
       </c>
       <c r="E162">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -8144,7 +8144,7 @@
         <v>250</v>
       </c>
       <c r="E163">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -8176,7 +8176,7 @@
         <v>257</v>
       </c>
       <c r="E164">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>76</v>
       </c>
       <c r="E165">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>270</v>
       </c>
       <c r="E166">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -8272,7 +8272,7 @@
         <v>247</v>
       </c>
       <c r="E167">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -8304,7 +8304,7 @@
         <v>283</v>
       </c>
       <c r="E168">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>163</v>
       </c>
       <c r="E169">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -8368,7 +8368,7 @@
         <v>299</v>
       </c>
       <c r="E170">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -8400,7 +8400,7 @@
         <v>95</v>
       </c>
       <c r="E171">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -8432,7 +8432,7 @@
         <v>312</v>
       </c>
       <c r="E172">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -8464,7 +8464,7 @@
         <v>321</v>
       </c>
       <c r="E173">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -8496,7 +8496,7 @@
         <v>328</v>
       </c>
       <c r="E174">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -8528,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="E175">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -8560,7 +8560,7 @@
         <v>97</v>
       </c>
       <c r="E176">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -8592,7 +8592,7 @@
         <v>201</v>
       </c>
       <c r="E177">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -8624,7 +8624,7 @@
         <v>354</v>
       </c>
       <c r="E178">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -8656,7 +8656,7 @@
         <v>359</v>
       </c>
       <c r="E179">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -8688,7 +8688,7 @@
         <v>44</v>
       </c>
       <c r="E180">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -8720,7 +8720,7 @@
         <v>375</v>
       </c>
       <c r="E181">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>381</v>
       </c>
       <c r="E182">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -8784,7 +8784,7 @@
         <v>389</v>
       </c>
       <c r="E183">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F183">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>396</v>
       </c>
       <c r="E184">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F184">
         <v>2</v>
@@ -8848,7 +8848,7 @@
         <v>404</v>
       </c>
       <c r="E185">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -8880,7 +8880,7 @@
         <v>309</v>
       </c>
       <c r="E186">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -8912,7 +8912,7 @@
         <v>416</v>
       </c>
       <c r="E187">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -8944,7 +8944,7 @@
         <v>97</v>
       </c>
       <c r="E188">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>429</v>
       </c>
       <c r="E189">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -9008,7 +9008,7 @@
         <v>436</v>
       </c>
       <c r="E190">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -9040,7 +9040,7 @@
         <v>243</v>
       </c>
       <c r="E191">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -9072,7 +9072,7 @@
         <v>419</v>
       </c>
       <c r="E192">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -9104,7 +9104,7 @@
         <v>452</v>
       </c>
       <c r="E193">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -9136,7 +9136,7 @@
         <v>460</v>
       </c>
       <c r="E194">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F194">
         <v>2</v>
@@ -9168,7 +9168,7 @@
         <v>465</v>
       </c>
       <c r="E195">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>471</v>
       </c>
       <c r="E196">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -9232,7 +9232,7 @@
         <v>38</v>
       </c>
       <c r="E197">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -9264,7 +9264,7 @@
         <v>278</v>
       </c>
       <c r="E198">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>488</v>
       </c>
       <c r="E199">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F199">
         <v>2</v>
@@ -9328,7 +9328,7 @@
         <v>383</v>
       </c>
       <c r="E200">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -9360,7 +9360,7 @@
         <v>398</v>
       </c>
       <c r="E201">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -9392,7 +9392,7 @@
         <v>140</v>
       </c>
       <c r="E202">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -9424,7 +9424,7 @@
         <v>505</v>
       </c>
       <c r="E203">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -9456,7 +9456,7 @@
         <v>16</v>
       </c>
       <c r="E204">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F204">
         <v>2</v>
@@ -9488,7 +9488,7 @@
         <v>26</v>
       </c>
       <c r="E205">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -9520,7 +9520,7 @@
         <v>36</v>
       </c>
       <c r="E206">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -9552,7 +9552,7 @@
         <v>28</v>
       </c>
       <c r="E207">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -9584,7 +9584,7 @@
         <v>55</v>
       </c>
       <c r="E208">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -9616,7 +9616,7 @@
         <v>65</v>
       </c>
       <c r="E209">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>74</v>
       </c>
       <c r="E210">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -9680,7 +9680,7 @@
         <v>84</v>
       </c>
       <c r="E211">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -9712,7 +9712,7 @@
         <v>93</v>
       </c>
       <c r="E212">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -9744,7 +9744,7 @@
         <v>103</v>
       </c>
       <c r="E213">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>111</v>
       </c>
       <c r="E214">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -9808,7 +9808,7 @@
         <v>118</v>
       </c>
       <c r="E215">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -9840,7 +9840,7 @@
         <v>126</v>
       </c>
       <c r="E216">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F216">
         <v>2</v>
@@ -9872,7 +9872,7 @@
         <v>135</v>
       </c>
       <c r="E217">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -9904,7 +9904,7 @@
         <v>144</v>
       </c>
       <c r="E218">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -9936,7 +9936,7 @@
         <v>151</v>
       </c>
       <c r="E219">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -9968,7 +9968,7 @@
         <v>159</v>
       </c>
       <c r="E220">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -10000,7 +10000,7 @@
         <v>169</v>
       </c>
       <c r="E221">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -10032,7 +10032,7 @@
         <v>179</v>
       </c>
       <c r="E222">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -10064,7 +10064,7 @@
         <v>187</v>
       </c>
       <c r="E223">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F223">
         <v>2</v>
@@ -10096,7 +10096,7 @@
         <v>195</v>
       </c>
       <c r="E224">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -10128,7 +10128,7 @@
         <v>203</v>
       </c>
       <c r="E225">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -10160,7 +10160,7 @@
         <v>211</v>
       </c>
       <c r="E226">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -10192,7 +10192,7 @@
         <v>219</v>
       </c>
       <c r="E227">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -10224,7 +10224,7 @@
         <v>159</v>
       </c>
       <c r="E228">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>234</v>
       </c>
       <c r="E229">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -10288,7 +10288,7 @@
         <v>243</v>
       </c>
       <c r="E230">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -10320,7 +10320,7 @@
         <v>179</v>
       </c>
       <c r="E231">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -10352,7 +10352,7 @@
         <v>259</v>
       </c>
       <c r="E232">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -10384,7 +10384,7 @@
         <v>265</v>
       </c>
       <c r="E233">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -10416,7 +10416,7 @@
         <v>111</v>
       </c>
       <c r="E234">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>278</v>
       </c>
       <c r="E235">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -10480,7 +10480,7 @@
         <v>285</v>
       </c>
       <c r="E236">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F236">
         <v>2</v>
@@ -10512,7 +10512,7 @@
         <v>293</v>
       </c>
       <c r="E237">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -10544,7 +10544,7 @@
         <v>53</v>
       </c>
       <c r="E238">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -10576,7 +10576,7 @@
         <v>78</v>
       </c>
       <c r="E239">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F239">
         <v>2</v>
@@ -10608,7 +10608,7 @@
         <v>265</v>
       </c>
       <c r="E240">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -10640,7 +10640,7 @@
         <v>315</v>
       </c>
       <c r="E241">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -10672,7 +10672,7 @@
         <v>245</v>
       </c>
       <c r="E242">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -10704,7 +10704,7 @@
         <v>336</v>
       </c>
       <c r="E243">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -10736,7 +10736,7 @@
         <v>20</v>
       </c>
       <c r="E244">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -10768,7 +10768,7 @@
         <v>348</v>
       </c>
       <c r="E245">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -10800,7 +10800,7 @@
         <v>356</v>
       </c>
       <c r="E246">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -10832,7 +10832,7 @@
         <v>28</v>
       </c>
       <c r="E247">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F247">
         <v>2</v>
@@ -10864,7 +10864,7 @@
         <v>369</v>
       </c>
       <c r="E248">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F248">
         <v>2</v>
@@ -10896,7 +10896,7 @@
         <v>195</v>
       </c>
       <c r="E249">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -10928,7 +10928,7 @@
         <v>383</v>
       </c>
       <c r="E250">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -10960,7 +10960,7 @@
         <v>375</v>
       </c>
       <c r="E251">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -10992,7 +10992,7 @@
         <v>398</v>
       </c>
       <c r="E252">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -11024,7 +11024,7 @@
         <v>398</v>
       </c>
       <c r="E253">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -11056,7 +11056,7 @@
         <v>411</v>
       </c>
       <c r="E254">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -11088,7 +11088,7 @@
         <v>324</v>
       </c>
       <c r="E255">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -11120,7 +11120,7 @@
         <v>32</v>
       </c>
       <c r="E256">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -11152,7 +11152,7 @@
         <v>61</v>
       </c>
       <c r="E257">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -11184,7 +11184,7 @@
         <v>47</v>
       </c>
       <c r="E258">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -11216,7 +11216,7 @@
         <v>337</v>
       </c>
       <c r="E259">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -11248,7 +11248,7 @@
         <v>47</v>
       </c>
       <c r="E260">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -11280,7 +11280,7 @@
         <v>453</v>
       </c>
       <c r="E261">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -11312,7 +11312,7 @@
         <v>462</v>
       </c>
       <c r="E262">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -11344,7 +11344,7 @@
         <v>466</v>
       </c>
       <c r="E263">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -11376,7 +11376,7 @@
         <v>157</v>
       </c>
       <c r="E264">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -11408,7 +11408,7 @@
         <v>65</v>
       </c>
       <c r="E265">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -11440,7 +11440,7 @@
         <v>383</v>
       </c>
       <c r="E266">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -11472,7 +11472,7 @@
         <v>82</v>
       </c>
       <c r="E267">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -11504,7 +11504,7 @@
         <v>49</v>
       </c>
       <c r="E268">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F268">
         <v>2</v>
@@ -11536,7 +11536,7 @@
         <v>241</v>
       </c>
       <c r="E269">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -11568,7 +11568,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -11600,7 +11600,7 @@
         <v>28</v>
       </c>
       <c r="E271">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -11632,7 +11632,7 @@
         <v>38</v>
       </c>
       <c r="E272">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>47</v>
       </c>
       <c r="E273">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F273">
         <v>2</v>
@@ -11696,7 +11696,7 @@
         <v>57</v>
       </c>
       <c r="E274">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -11728,7 +11728,7 @@
         <v>67</v>
       </c>
       <c r="E275">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F275">
         <v>2</v>
@@ -11760,7 +11760,7 @@
         <v>76</v>
       </c>
       <c r="E276">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -11792,7 +11792,7 @@
         <v>86</v>
       </c>
       <c r="E277">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -11824,7 +11824,7 @@
         <v>95</v>
       </c>
       <c r="E278">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F278">
         <v>2</v>
@@ -11856,7 +11856,7 @@
         <v>105</v>
       </c>
       <c r="E279">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -11888,7 +11888,7 @@
         <v>91</v>
       </c>
       <c r="E280">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -11920,7 +11920,7 @@
         <v>55</v>
       </c>
       <c r="E281">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -11952,7 +11952,7 @@
         <v>128</v>
       </c>
       <c r="E282">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F282">
         <v>2</v>
@@ -11984,7 +11984,7 @@
         <v>32</v>
       </c>
       <c r="E283">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F283">
         <v>2</v>
@@ -12016,7 +12016,7 @@
         <v>146</v>
       </c>
       <c r="E284">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F284">
         <v>2</v>
@@ -12048,7 +12048,7 @@
         <v>153</v>
       </c>
       <c r="E285">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F285">
         <v>2</v>
@@ -12080,7 +12080,7 @@
         <v>161</v>
       </c>
       <c r="E286">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F286">
         <v>2</v>
@@ -12112,7 +12112,7 @@
         <v>171</v>
       </c>
       <c r="E287">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F287">
         <v>2</v>
@@ -12144,7 +12144,7 @@
         <v>181</v>
       </c>
       <c r="E288">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F288">
         <v>2</v>
@@ -12176,7 +12176,7 @@
         <v>189</v>
       </c>
       <c r="E289">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F289">
         <v>2</v>
@@ -12208,7 +12208,7 @@
         <v>65</v>
       </c>
       <c r="E290">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F290">
         <v>2</v>
@@ -12240,7 +12240,7 @@
         <v>97</v>
       </c>
       <c r="E291">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -12272,7 +12272,7 @@
         <v>63</v>
       </c>
       <c r="E292">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F292">
         <v>2</v>
@@ -12304,7 +12304,7 @@
         <v>206</v>
       </c>
       <c r="E293">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F293">
         <v>2</v>
@@ -12336,7 +12336,7 @@
         <v>227</v>
       </c>
       <c r="E294">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -12368,7 +12368,7 @@
         <v>236</v>
       </c>
       <c r="E295">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F295">
         <v>2</v>
@@ -12400,7 +12400,7 @@
         <v>245</v>
       </c>
       <c r="E296">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -12432,7 +12432,7 @@
         <v>253</v>
       </c>
       <c r="E297">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -12464,7 +12464,7 @@
         <v>261</v>
       </c>
       <c r="E298">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F298">
         <v>2</v>
@@ -12496,7 +12496,7 @@
         <v>135</v>
       </c>
       <c r="E299">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F299">
         <v>2</v>
@@ -12528,7 +12528,7 @@
         <v>140</v>
       </c>
       <c r="E300">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F300">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>101</v>
       </c>
       <c r="E301">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -12592,7 +12592,7 @@
         <v>287</v>
       </c>
       <c r="E302">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F302">
         <v>2</v>
@@ -12624,7 +12624,7 @@
         <v>40</v>
       </c>
       <c r="E303">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F303">
         <v>2</v>
@@ -12656,7 +12656,7 @@
         <v>101</v>
       </c>
       <c r="E304">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F304">
         <v>2</v>
@@ -12688,7 +12688,7 @@
         <v>16</v>
       </c>
       <c r="E305">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F305">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>315</v>
       </c>
       <c r="E306">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F306">
         <v>2</v>
@@ -12752,7 +12752,7 @@
         <v>324</v>
       </c>
       <c r="E307">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F307">
         <v>2</v>
@@ -12784,7 +12784,7 @@
         <v>330</v>
       </c>
       <c r="E308">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F308">
         <v>2</v>
@@ -12816,7 +12816,7 @@
         <v>337</v>
       </c>
       <c r="E309">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F309">
         <v>2</v>
@@ -12848,7 +12848,7 @@
         <v>344</v>
       </c>
       <c r="E310">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F310">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>337</v>
       </c>
       <c r="E311">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F311">
         <v>2</v>
@@ -12912,7 +12912,7 @@
         <v>57</v>
       </c>
       <c r="E312">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F312">
         <v>2</v>
@@ -12944,7 +12944,7 @@
         <v>70</v>
       </c>
       <c r="E313">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -12976,7 +12976,7 @@
         <v>126</v>
       </c>
       <c r="E314">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F314">
         <v>2</v>
@@ -13008,7 +13008,7 @@
         <v>378</v>
       </c>
       <c r="E315">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F315">
         <v>2</v>
@@ -13040,7 +13040,7 @@
         <v>265</v>
       </c>
       <c r="E316">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F316">
         <v>2</v>
@@ -13072,7 +13072,7 @@
         <v>183</v>
       </c>
       <c r="E317">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F317">
         <v>2</v>
@@ -13104,7 +13104,7 @@
         <v>400</v>
       </c>
       <c r="E318">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F318">
         <v>2</v>
@@ -13136,7 +13136,7 @@
         <v>14</v>
       </c>
       <c r="E319">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F319">
         <v>2</v>
@@ -13168,7 +13168,7 @@
         <v>167</v>
       </c>
       <c r="E320">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F320">
         <v>2</v>
@@ -13200,7 +13200,7 @@
         <v>419</v>
       </c>
       <c r="E321">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -13232,7 +13232,7 @@
         <v>135</v>
       </c>
       <c r="E322">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F322">
         <v>2</v>
@@ -13264,7 +13264,7 @@
         <v>55</v>
       </c>
       <c r="E323">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F323">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>438</v>
       </c>
       <c r="E324">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F324">
         <v>2</v>
@@ -13328,7 +13328,7 @@
         <v>443</v>
       </c>
       <c r="E325">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F325">
         <v>2</v>
@@ -13360,7 +13360,7 @@
         <v>448</v>
       </c>
       <c r="E326">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F326">
         <v>2</v>
@@ -13392,7 +13392,7 @@
         <v>455</v>
       </c>
       <c r="E327">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F327">
         <v>2</v>
@@ -13424,7 +13424,7 @@
         <v>74</v>
       </c>
       <c r="E328">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F328">
         <v>2</v>
@@ -13456,7 +13456,7 @@
         <v>261</v>
       </c>
       <c r="E329">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F329">
         <v>2</v>
@@ -13488,7 +13488,7 @@
         <v>89</v>
       </c>
       <c r="E330">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F330">
         <v>2</v>
@@ -13520,7 +13520,7 @@
         <v>479</v>
       </c>
       <c r="E331">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F331">
         <v>2</v>
@@ -13552,7 +13552,7 @@
         <v>485</v>
       </c>
       <c r="E332">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F332">
         <v>2</v>
@@ -13584,7 +13584,7 @@
         <v>84</v>
       </c>
       <c r="E333">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F333">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>495</v>
       </c>
       <c r="E334">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F334">
         <v>2</v>
@@ -13648,7 +13648,7 @@
         <v>381</v>
       </c>
       <c r="E335">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F335">
         <v>2</v>
@@ -13680,7 +13680,7 @@
         <v>167</v>
       </c>
       <c r="E336">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F336">
         <v>2</v>
